--- a/biology/Médecine/Examen_complémentaire/Examen_complémentaire.xlsx
+++ b/biology/Médecine/Examen_complémentaire/Examen_complémentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Examen_compl%C3%A9mentaire</t>
+          <t>Examen_complémentaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>En médecine, les examens complémentaires, ou examens paracliniques[1], sont les examens qui se font avec instrument (à part le stéthoscope), et qui en général ne se font pas durant la consultation.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>En médecine, les examens complémentaires, ou examens paracliniques, sont les examens qui se font avec instrument (à part le stéthoscope), et qui en général ne se font pas durant la consultation.
 On peut citer :
 l'imagerie médicale :
 radiographie,
